--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_7_9.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_7_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_24</t>
+          <t>model_7_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997685130641744</v>
+        <v>0.9999939966482478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990447311794032</v>
+        <v>0.9990518915967637</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9997441801469913</v>
+        <v>0.9999790192421294</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999804525781968</v>
+        <v>0.999964122463273</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998119434105106</v>
+        <v>0.9999714797316644</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002160828934910801</v>
+        <v>5.603865343999815e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008917015125720833</v>
+        <v>0.0008850175772721206</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001783664037817924</v>
+        <v>1.015812931816948e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000102196396411979</v>
+        <v>2.46499011003016e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001402814000968857</v>
+        <v>1.740401520923553e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001735548316052277</v>
+        <v>0.0001505861998536305</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01469975828002216</v>
+        <v>0.002367248475340055</v>
       </c>
       <c r="N2" t="n">
-        <v>1.005555686459815</v>
+        <v>1.000144080442052</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01532555742269727</v>
+        <v>0.002468027143815176</v>
       </c>
       <c r="P2" t="n">
-        <v>66.8796969154742</v>
+        <v>74.18410791665855</v>
       </c>
       <c r="Q2" t="n">
-        <v>97.35159253717922</v>
+        <v>104.6560035383636</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_23</t>
+          <t>model_7_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997641325086425</v>
+        <v>0.9999939501478314</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990416459318139</v>
+        <v>0.9990514535360803</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9997403525593375</v>
+        <v>0.9999787096690488</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998021138346804</v>
+        <v>0.9999638881510491</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999809309382796</v>
+        <v>0.9999712250176203</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002201719497959616</v>
+        <v>5.64727144153437e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008945814557699955</v>
+        <v>0.0008854264876914466</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001810351295939637</v>
+        <v>1.030801348369486e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001034573929955995</v>
+        <v>2.481088687787095e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001422462612947816</v>
+        <v>1.75594501807829e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001751735603384211</v>
+        <v>0.0001498541312727336</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01483819226846591</v>
+        <v>0.002376398838901915</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00566081979258</v>
+        <v>1.000145196452046</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01546988483262693</v>
+        <v>0.002477567057297728</v>
       </c>
       <c r="P3" t="n">
-        <v>66.84220345382532</v>
+        <v>74.1686761203128</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.31409907553034</v>
+        <v>104.6405717420178</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_22</t>
+          <t>model_7_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997596558569856</v>
+        <v>0.9999939410612854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990384861851379</v>
+        <v>0.9990513706005084</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9997364453578607</v>
+        <v>0.9999786530568215</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997996445876918</v>
+        <v>0.9999638408690785</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998066180683007</v>
+        <v>0.9999711759421207</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002243507076154019</v>
+        <v>5.655753333435408e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008975309405951492</v>
+        <v>0.0008855039044072871</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001837593649028046</v>
+        <v>1.033542309061084e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001047483465884768</v>
+        <v>2.484337227139475e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001442538557456407</v>
+        <v>1.75893976810028e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001768107796507783</v>
+        <v>0.0001497201953009528</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01497834128384722</v>
+        <v>0.002378182779652441</v>
       </c>
       <c r="N4" t="n">
-        <v>1.005768259432346</v>
+        <v>1.000145414529151</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01561600028174148</v>
+        <v>0.00247942694409927</v>
       </c>
       <c r="P4" t="n">
-        <v>66.80460014295632</v>
+        <v>74.16567448361394</v>
       </c>
       <c r="Q4" t="n">
-        <v>97.27649576466133</v>
+        <v>104.637570105319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_21</t>
+          <t>model_7_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997550894326669</v>
+        <v>0.9999939323352506</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990352438078058</v>
+        <v>0.9990512892705907</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9997324477003116</v>
+        <v>0.9999785963631149</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997971353145547</v>
+        <v>0.9999637969906949</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998038704531742</v>
+        <v>0.9999711287503334</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002286132642740151</v>
+        <v>5.663898703880204e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009005575575107303</v>
+        <v>0.0008855798223155132</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000186546669297657</v>
+        <v>1.036287214685952e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001060602263586293</v>
+        <v>2.487351920773321e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001463034478281431</v>
+        <v>1.761819567729637e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001784637063221235</v>
+        <v>0.0001495906041641248</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01511996244287713</v>
+        <v>0.002379894683358951</v>
       </c>
       <c r="N5" t="n">
-        <v>1.005877853615995</v>
+        <v>1.000145623953986</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01576365054670751</v>
+        <v>0.002481211727090696</v>
       </c>
       <c r="P5" t="n">
-        <v>66.76695756868213</v>
+        <v>74.16279617186945</v>
       </c>
       <c r="Q5" t="n">
-        <v>97.23885319038715</v>
+        <v>104.6346917935745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_20</t>
+          <t>model_7_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997504268964</v>
+        <v>0.9999938905903151</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990319231472116</v>
+        <v>0.9990509045263504</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9997283394460289</v>
+        <v>0.999978325560233</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997945636172955</v>
+        <v>0.9999635904164091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998010492758047</v>
+        <v>0.9999709050315481</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000232965537217425</v>
+        <v>5.702865768811433e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009036572484153649</v>
+        <v>0.0008859389641755696</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001894110855405432</v>
+        <v>1.049398517485078e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001074047422503068</v>
+        <v>2.501544744976409e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000148407913895425</v>
+        <v>1.775471631230744e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001801348867152696</v>
+        <v>0.0001489652524601419</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01526320861475152</v>
+        <v>0.002388067371078847</v>
       </c>
       <c r="N6" t="n">
-        <v>1.005989754486399</v>
+        <v>1.000146625832438</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01591299500467904</v>
+        <v>0.002489732343046623</v>
       </c>
       <c r="P6" t="n">
-        <v>66.72924004855254</v>
+        <v>74.14908348602066</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.20113567025756</v>
+        <v>104.6209791077257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_19</t>
+          <t>model_7_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997456764195267</v>
+        <v>0.9999938866278237</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990285184784932</v>
+        <v>0.9990508677167994</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9997241514108626</v>
+        <v>0.9999783031422204</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997919473718505</v>
+        <v>0.9999635686374476</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9997981752021269</v>
+        <v>0.999970883877851</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002373998988568028</v>
+        <v>5.706564580545007e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009068353572163385</v>
+        <v>0.0008859733242756131</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001923311277606517</v>
+        <v>1.050483917132163e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001087725484976049</v>
+        <v>2.503041083063618e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001505518381291283</v>
+        <v>1.77676250009789e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001818200299078017</v>
+        <v>0.0001489004028368799</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01540778695519908</v>
+        <v>0.002388841681766501</v>
       </c>
       <c r="N7" t="n">
-        <v>1.006103765931359</v>
+        <v>1.00014672093223</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01606372834439788</v>
+        <v>0.002490539617743296</v>
       </c>
       <c r="P7" t="n">
-        <v>66.69152900366856</v>
+        <v>74.14778673000397</v>
       </c>
       <c r="Q7" t="n">
-        <v>97.16342462537358</v>
+        <v>104.619682351709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_18</t>
+          <t>model_7_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997408247460201</v>
+        <v>0.9999938746230871</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990250355412923</v>
+        <v>0.9990507618539561</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9997198603178542</v>
+        <v>0.9999782230615587</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997892888496377</v>
+        <v>0.9999635119457332</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997952381497575</v>
+        <v>0.9999708201951492</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002419287231114385</v>
+        <v>5.717770475260074e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009100865262100669</v>
+        <v>0.0008860721425929415</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001953230254543101</v>
+        <v>1.054361135115791e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001101624575744331</v>
+        <v>2.506936125142914e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001527427415143716</v>
+        <v>1.780648630129352e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001835235319628057</v>
+        <v>0.0001487330531663296</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01555405809142548</v>
+        <v>0.002391185997629643</v>
       </c>
       <c r="N8" t="n">
-        <v>1.006220206095517</v>
+        <v>1.00014700904591</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01621622654571643</v>
+        <v>0.002492983735986135</v>
       </c>
       <c r="P8" t="n">
-        <v>66.65373481557639</v>
+        <v>74.14386321121565</v>
       </c>
       <c r="Q8" t="n">
-        <v>97.1256304372814</v>
+        <v>104.6157588329207</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_17</t>
+          <t>model_7_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997358718209551</v>
+        <v>0.9999938668456743</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990214641274249</v>
+        <v>0.9990506926952509</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9997154708815735</v>
+        <v>0.9999781746404706</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999786581079679</v>
+        <v>0.9999634730680648</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9997922378791674</v>
+        <v>0.9999707791002763</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002465520612513014</v>
+        <v>5.725030348715882e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009134202842883596</v>
+        <v>0.0008861366992085572</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001983834914611578</v>
+        <v>1.056705510270504e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001115781139964515</v>
+        <v>2.509607241305042e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001549808027288046</v>
+        <v>1.783156375787773e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001852445756053185</v>
+        <v>0.0001486115898165751</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01570197634857795</v>
+        <v>0.002392703564739243</v>
       </c>
       <c r="N9" t="n">
-        <v>1.006339076297077</v>
+        <v>1.000147195703818</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01637044198930889</v>
+        <v>0.002494565909069387</v>
       </c>
       <c r="P9" t="n">
-        <v>66.61587476990132</v>
+        <v>74.14132541490456</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.08777039160634</v>
+        <v>104.6132210366096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_16</t>
+          <t>model_7_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997308201261151</v>
+        <v>0.9999938627419531</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990178030157875</v>
+        <v>0.9990506586803101</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9997109882230756</v>
+        <v>0.9999781537736572</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997838041919832</v>
+        <v>0.9999634495881189</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9997891698205604</v>
+        <v>0.9999707576043841</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0002512675966406301</v>
+        <v>5.728860992230164e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009168377712975686</v>
+        <v>0.0008861684506627604</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002015089552054599</v>
+        <v>1.057715806419591e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001130299060465768</v>
+        <v>2.51122044666546e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001572694306260184</v>
+        <v>1.784468126542526e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001869824957358344</v>
+        <v>0.0001485698127416292</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01585142254312307</v>
+        <v>0.002393503915231843</v>
       </c>
       <c r="N10" t="n">
-        <v>1.006460316973237</v>
+        <v>1.000147294193125</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01652625041775206</v>
+        <v>0.002495400332139411</v>
       </c>
       <c r="P10" t="n">
-        <v>66.57798412932561</v>
+        <v>74.13998765342487</v>
       </c>
       <c r="Q10" t="n">
-        <v>97.04987975103063</v>
+        <v>104.6118832751299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_15</t>
+          <t>model_7_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997256665374078</v>
+        <v>0.999993858849638</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990140527642343</v>
+        <v>0.9990506249699688</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9997063941895266</v>
+        <v>0.9999781257731554</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997809959282032</v>
+        <v>0.9999634325201829</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9997860387162143</v>
+        <v>0.9999707368881435</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002560782454825486</v>
+        <v>5.732494297615639e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009203384665055463</v>
+        <v>0.0008861999177865971</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002047120734676373</v>
+        <v>1.059071490137145e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001144981019108694</v>
+        <v>2.512393110594956e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001596050876892534</v>
+        <v>1.785732300366051e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001887370658236382</v>
+        <v>0.0001485003063943688</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01600244498451873</v>
+        <v>0.002394262787919413</v>
       </c>
       <c r="N11" t="n">
-        <v>1.006584003102213</v>
+        <v>1.000147387608688</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01668370219713749</v>
+        <v>0.002496191511608373</v>
       </c>
       <c r="P11" t="n">
-        <v>66.5400550275377</v>
+        <v>74.1387196339227</v>
       </c>
       <c r="Q11" t="n">
-        <v>97.01195064924272</v>
+        <v>104.6106152556277</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_14</t>
+          <t>model_7_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9997204076236422</v>
+        <v>0.999993855570528</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990102088319694</v>
+        <v>0.9990505922941875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999701709297948</v>
+        <v>0.9999781052675676</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997781063729181</v>
+        <v>0.9999634159939464</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999782836662656</v>
+        <v>0.9999707194501137</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002609872106430908</v>
+        <v>5.735555202806595e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009239266085456126</v>
+        <v>0.0008862304191941461</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0002079785410741867</v>
+        <v>1.06006429703783e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001160087980034183</v>
+        <v>2.51352855670506e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001619936695388025</v>
+        <v>1.786796426871445e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001905099430621692</v>
+        <v>0.0001484491978537431</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01615509859589507</v>
+        <v>0.002394901919245671</v>
       </c>
       <c r="N12" t="n">
-        <v>1.006710217032587</v>
+        <v>1.000147466307328</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01684285458878666</v>
+        <v>0.002496857852078373</v>
       </c>
       <c r="P12" t="n">
-        <v>66.50207830641931</v>
+        <v>74.13765200502434</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.97397392812432</v>
+        <v>104.6095476267294</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_13</t>
+          <t>model_7_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9997150370438055</v>
+        <v>0.9999938513238465</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990062735173498</v>
+        <v>0.9990505586160481</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999696886957206</v>
+        <v>0.9999780778617221</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997751785869246</v>
+        <v>0.9999633959713009</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9997795569756773</v>
+        <v>0.9999706973064338</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002660004111794242</v>
+        <v>5.739519293533747e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009276000520026249</v>
+        <v>0.0008862618562589856</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0002113408429668502</v>
+        <v>1.061391189634946e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001175394815944298</v>
+        <v>2.514904225935535e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00016444016228064</v>
+        <v>1.788147707785241e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001923011938640383</v>
+        <v>0.0001483935794510625</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01630951903580925</v>
+        <v>0.002395729386540505</v>
       </c>
       <c r="N13" t="n">
-        <v>1.006839110948668</v>
+        <v>1.000147568227683</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01700384902652236</v>
+        <v>0.002497720546369043</v>
       </c>
       <c r="P13" t="n">
-        <v>66.46402540679293</v>
+        <v>74.13627019582177</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.93592102849794</v>
+        <v>104.6081658175268</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9997095598390168</v>
+        <v>0.9999938479900485</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990022347098541</v>
+        <v>0.9990505261539965</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9996919736725796</v>
+        <v>0.9999780563150162</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997721851658258</v>
+        <v>0.9999633797029278</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9997762117858765</v>
+        <v>0.9999706796005514</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002711131414281724</v>
+        <v>5.742631247639729e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009313701015167746</v>
+        <v>0.0008862921581592883</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00021476655406502</v>
+        <v>1.06243440373668e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000119104480049519</v>
+        <v>2.516021955362741e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001669355170572695</v>
+        <v>1.78922817954971e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001941098293132898</v>
+        <v>0.0001483355399831867</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01646551370070707</v>
+        <v>0.002396378777998113</v>
       </c>
       <c r="N14" t="n">
-        <v>1.006970563863598</v>
+        <v>1.000147648238835</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01716648470725836</v>
+        <v>0.002498397583765427</v>
       </c>
       <c r="P14" t="n">
-        <v>66.42594865633376</v>
+        <v>74.13518609431271</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.89784427803878</v>
+        <v>104.6070817160177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_11</t>
+          <t>model_7_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9997039694381056</v>
+        <v>0.9999938446548937</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989980999583798</v>
+        <v>0.9990504946330464</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9996869316641431</v>
+        <v>0.9999780357732676</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997691386962881</v>
+        <v>0.9999633626085168</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9997727878477859</v>
+        <v>0.9999706618283249</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002763315352885311</v>
+        <v>5.745744468246829e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009352297105233587</v>
+        <v>0.0008863215815825863</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0002182820158326764</v>
+        <v>1.063428961414666e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001206972129002707</v>
+        <v>2.51719643828164e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001694896143664735</v>
+        <v>1.790312699848153e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001959375155681155</v>
+        <v>0.0001482818427345448</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01662322277082669</v>
+        <v>0.002397028257707203</v>
       </c>
       <c r="N15" t="n">
-        <v>1.007104733485466</v>
+        <v>1.000147728282551</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01733090777899575</v>
+        <v>0.002499074713170341</v>
       </c>
       <c r="P15" t="n">
-        <v>66.38781839662978</v>
+        <v>74.13410213927493</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.8597140183348</v>
+        <v>104.6059977609799</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_10</t>
+          <t>model_7_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999698264640189</v>
+        <v>0.999993837064146</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989938653391999</v>
+        <v>0.9990504315038885</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9996817998617432</v>
+        <v>0.9999779877524126</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997660504980006</v>
+        <v>0.9999633260030443</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9997693073218501</v>
+        <v>0.9999706221713498</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0002816567137320644</v>
+        <v>5.752830098022927e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009391825416495563</v>
+        <v>0.0008863805098804107</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002218600850411766</v>
+        <v>1.065753958719104e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001223117620698228</v>
+        <v>2.51971144171207e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001720859235554998</v>
+        <v>1.792732700215587e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001977830818323781</v>
+        <v>0.0001481810918696061</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0167826313113309</v>
+        <v>0.00239850580529273</v>
       </c>
       <c r="N16" t="n">
-        <v>1.007241648635465</v>
+        <v>1.000147910460496</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0174971026710904</v>
+        <v>0.002500615163015529</v>
       </c>
       <c r="P16" t="n">
-        <v>66.34964311152406</v>
+        <v>74.1316372665615</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.82153873322908</v>
+        <v>104.6035328882665</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_9</t>
+          <t>model_7_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9996924420251736</v>
+        <v>0.9999938337248501</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989895225732103</v>
+        <v>0.9990503986240644</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9996765211732733</v>
+        <v>0.9999779671747381</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997628785396153</v>
+        <v>0.999963309437757</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9997657287972214</v>
+        <v>0.9999706046827395</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002870918692656508</v>
+        <v>5.755947184215176e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009432363230755054</v>
+        <v>0.0008864112017529296</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002255405682718377</v>
+        <v>1.066750255805707e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001239701020790513</v>
+        <v>2.520849570831544e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001747553351754445</v>
+        <v>1.793799913318626e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001996475411713136</v>
+        <v>0.0001481227247387228</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01694378556479191</v>
+        <v>0.002399155514804152</v>
       </c>
       <c r="N17" t="n">
-        <v>1.007381391395834</v>
+        <v>1.000147990603598</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01766511759475654</v>
+        <v>0.002501292532005937</v>
       </c>
       <c r="P17" t="n">
-        <v>66.31141658291089</v>
+        <v>74.13055388952081</v>
       </c>
       <c r="Q17" t="n">
-        <v>96.78331220461591</v>
+        <v>104.6024495112258</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_8</t>
+          <t>model_7_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9996864971585953</v>
+        <v>0.9999938301682546</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989850707397295</v>
+        <v>0.9990503680458536</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9996711386705067</v>
+        <v>0.9999779445569016</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997596317854807</v>
+        <v>0.9999632923107548</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9997620755446632</v>
+        <v>0.9999705860685733</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002926411412669922</v>
+        <v>5.759267109964193e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009473919142168644</v>
+        <v>0.0008864397451705698</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0002292934344021625</v>
+        <v>1.067845330202682e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000125667546253227</v>
+        <v>2.522026292951388e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001774804903276947</v>
+        <v>1.794935811577035e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00201531720677134</v>
+        <v>0.0001480823599722712</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01710675718150556</v>
+        <v>0.002399847309718723</v>
       </c>
       <c r="N18" t="n">
-        <v>1.007524068193714</v>
+        <v>1.000148075961889</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01783502725059144</v>
+        <v>0.002502013778062234</v>
       </c>
       <c r="P18" t="n">
-        <v>66.27312694685689</v>
+        <v>74.12940065841067</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.74502256856191</v>
+        <v>104.6012962801157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_7</t>
+          <t>model_7_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9996804407051761</v>
+        <v>0.9999938231396089</v>
       </c>
       <c r="C19" t="n">
-        <v>0.998980519409344</v>
+        <v>0.9990503065786638</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9996656184754726</v>
+        <v>0.9999778984564551</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997563448304868</v>
+        <v>0.9999632596995413</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9997583438546662</v>
+        <v>0.9999705494219843</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002982945746862382</v>
+        <v>5.765828042263745e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009516403813514163</v>
+        <v>0.0008864971220941247</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0002331423043191091</v>
+        <v>1.070077348225472e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000127386007945671</v>
+        <v>2.524266868143255e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00018026415613239</v>
+        <v>1.797172108184363e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002034316965301611</v>
+        <v>0.000147986975560263</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01727120652086119</v>
+        <v>0.002401213868497295</v>
       </c>
       <c r="N19" t="n">
-        <v>1.007669423075773</v>
+        <v>1.000148244649385</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0180064775387805</v>
+        <v>0.002503438514077176</v>
       </c>
       <c r="P19" t="n">
-        <v>66.23485810810068</v>
+        <v>74.1271235638022</v>
       </c>
       <c r="Q19" t="n">
-        <v>96.7067537298057</v>
+        <v>104.5990191855072</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_6</t>
+          <t>model_7_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9996742503232209</v>
+        <v>0.9999938195370259</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989758484387709</v>
+        <v>0.9990502751143922</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9996599572073297</v>
+        <v>0.9999778747822379</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997529744240841</v>
+        <v>0.9999632428318855</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9997545169908074</v>
+        <v>0.9999705305347455</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0003040730245150628</v>
+        <v>5.769190895327937e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009560005273495147</v>
+        <v>0.0008865264926104847</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0002370895352616071</v>
+        <v>1.071223568787941e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000129148099091316</v>
+        <v>2.525425771691804e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001831188171764616</v>
+        <v>1.798324670239873e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002053544867397589</v>
+        <v>0.000147924910809789</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0174376897700086</v>
+        <v>0.002401914006647186</v>
       </c>
       <c r="N20" t="n">
-        <v>1.007817992242699</v>
+        <v>1.000148331111378</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01818004832451196</v>
+        <v>0.002504168458557594</v>
       </c>
       <c r="P20" t="n">
-        <v>66.19648534636758</v>
+        <v>74.12595742677975</v>
       </c>
       <c r="Q20" t="n">
-        <v>96.6683809680726</v>
+        <v>104.5978530484848</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_5</t>
+          <t>model_7_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9996679460106639</v>
+        <v>0.9999938157646645</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989710745053876</v>
+        <v>0.9990502461943167</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9996541999117445</v>
+        <v>0.9999778561785085</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997495793110155</v>
+        <v>0.9999632213795157</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997506365910144</v>
+        <v>0.9999705110780439</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0003099578235596327</v>
+        <v>5.772712229114989e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009604567846113743</v>
+        <v>0.0008865534882315364</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0002411037198409258</v>
+        <v>1.072124294532996e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001309231071947719</v>
+        <v>2.526899671078964e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001860134135178488</v>
+        <v>1.79951198280598e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0020729197703317</v>
+        <v>0.0001478812420148986</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01760561909049587</v>
+        <v>0.002402646921442056</v>
       </c>
       <c r="N21" t="n">
-        <v>1.007969295744067</v>
+        <v>1.000148421648052</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01835512674383398</v>
+        <v>0.002504932575052624</v>
       </c>
       <c r="P21" t="n">
-        <v>66.15814864554916</v>
+        <v>74.12473706169496</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.63004426725418</v>
+        <v>104.5966326834</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_4</t>
+          <t>model_7_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9996615009734841</v>
+        <v>0.9999938123718548</v>
       </c>
       <c r="C22" t="n">
-        <v>0.998966176230766</v>
+        <v>0.999050216827392</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9996482811261618</v>
+        <v>0.9999778355322693</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999746080022907</v>
+        <v>0.9999632044992842</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9997466442133985</v>
+        <v>0.9999704933849372</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0003159739828626312</v>
+        <v>5.7758792680985e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009650291089612343</v>
+        <v>0.000886580900966689</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000245230500803192</v>
+        <v>1.073123911275261e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001327525793282085</v>
+        <v>2.52805943864748e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001889915400657003</v>
+        <v>1.80059167496137e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002092530464610554</v>
+        <v>0.0001478339367515806</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01777565703040625</v>
+        <v>0.002403305903978622</v>
       </c>
       <c r="N22" t="n">
-        <v>1.008123976636383</v>
+        <v>1.000148503075485</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01853240355087341</v>
+        <v>0.002505619611840054</v>
       </c>
       <c r="P22" t="n">
-        <v>66.11970136096016</v>
+        <v>74.12364011785945</v>
       </c>
       <c r="Q22" t="n">
-        <v>96.59159698266518</v>
+        <v>104.5955357395645</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_3</t>
+          <t>model_7_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9996549325406515</v>
+        <v>0.9999938089937925</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989611632770614</v>
+        <v>0.999050186909235</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999642238695962</v>
+        <v>0.9999778114348363</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997425422883544</v>
+        <v>0.9999631905678056</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9997425805782426</v>
+        <v>0.999970475982716</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0003221053265909195</v>
+        <v>5.779032540913365e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009697084812011548</v>
+        <v>0.0008866088282530414</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0002494434910467138</v>
+        <v>1.074290622418648e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001346021517494747</v>
+        <v>2.529016610187633e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001920228213980943</v>
+        <v>1.80165361630314e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002112302918911034</v>
+        <v>0.0001478024582008017</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01794729301568678</v>
+        <v>0.002403961842649206</v>
       </c>
       <c r="N23" t="n">
-        <v>1.008281619024364</v>
+        <v>1.000148584148979</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0187113464353828</v>
+        <v>0.002506303475177825</v>
       </c>
       <c r="P23" t="n">
-        <v>66.08126392938354</v>
+        <v>74.12254853950895</v>
       </c>
       <c r="Q23" t="n">
-        <v>96.55315955108856</v>
+        <v>104.594444161214</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_2</t>
+          <t>model_7_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9996482282478242</v>
+        <v>0.9999938061894703</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989560275578171</v>
+        <v>0.9990501576044175</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9996360585731853</v>
+        <v>0.9999777917853361</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997389225463598</v>
+        <v>0.9999631779824891</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997384238551115</v>
+        <v>0.9999704611028248</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0003283634896608373</v>
+        <v>5.781650252587409e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009745024496837278</v>
+        <v>0.0008866361830137638</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0002537524852926763</v>
+        <v>1.075241980641096e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001364945986998406</v>
+        <v>2.529881292756406e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001951235419962585</v>
+        <v>1.802561636698751e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002132282278195417</v>
+        <v>0.0001477372757719538</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01812080267705703</v>
+        <v>0.002404506238833122</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00844252205222</v>
+        <v>1.000148651452712</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01889224276225209</v>
+        <v>0.002506871047434346</v>
       </c>
       <c r="P24" t="n">
-        <v>66.04277872599039</v>
+        <v>74.12164281040435</v>
       </c>
       <c r="Q24" t="n">
-        <v>96.5146743476954</v>
+        <v>104.5935384321094</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_1</t>
+          <t>model_7_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.999641386055512</v>
+        <v>0.9999938021126304</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989507707817451</v>
+        <v>0.9990501282221562</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9996297157682237</v>
+        <v>0.9999777727534601</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9997352259164743</v>
+        <v>0.9999631543781102</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9997341641593034</v>
+        <v>0.9999704402648109</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0003347503758466872</v>
+        <v>5.785455803647377e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009794094194011283</v>
+        <v>0.0008866636100649237</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0002581749071554947</v>
+        <v>1.076163435709427e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001384272436131312</v>
+        <v>2.531503047367022e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001983010753843129</v>
+        <v>1.803833241538224e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002152466079038979</v>
+        <v>0.0001476981120983905</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01829618473471142</v>
+        <v>0.002405297445981968</v>
       </c>
       <c r="N25" t="n">
-        <v>1.008606734667712</v>
+        <v>1.000148749296869</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01907509119719174</v>
+        <v>0.002507695937909542</v>
       </c>
       <c r="P25" t="n">
-        <v>66.00425090125066</v>
+        <v>74.12032681963578</v>
       </c>
       <c r="Q25" t="n">
-        <v>96.47614652295567</v>
+        <v>104.5922224413408</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_0</t>
+          <t>model_7_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9996344068141882</v>
+        <v>0.9999937993457926</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989453905479527</v>
+        <v>0.9990500996293882</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9996232487188428</v>
+        <v>0.9999777520640157</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997314969039359</v>
+        <v>0.9999631431107211</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9997298350505912</v>
+        <v>0.9999704257142914</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0003412651912690957</v>
+        <v>5.788038525383177e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000984431631481382</v>
+        <v>0.0008866903001588577</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000262683956502449</v>
+        <v>1.077165144289506e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001403768185874584</v>
+        <v>2.532277180858722e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002015303875449537</v>
+        <v>1.804721162574114e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002172828127851515</v>
+        <v>0.0001476525045144519</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01847336437331045</v>
+        <v>0.002405834268062365</v>
       </c>
       <c r="N26" t="n">
-        <v>1.008774236459482</v>
+        <v>1.000148815700978</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01925981373981834</v>
+        <v>0.002508255613617277</v>
       </c>
       <c r="P26" t="n">
-        <v>65.96570139183292</v>
+        <v>74.11943418627709</v>
       </c>
       <c r="Q26" t="n">
-        <v>96.43759701353794</v>
+        <v>104.5913298079821</v>
       </c>
     </row>
   </sheetData>
